--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05833DC-3B05-414A-B752-842598C96F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7AF878-7E9F-4BF1-8016-BD7B3A1B4A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="3420" windowWidth="10248" windowHeight="9420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="83" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1932,7 +1932,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -1943,7 +1943,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -7141,238 +7141,238 @@
     <hyperlink ref="B232" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
     <hyperlink ref="B233" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
     <hyperlink ref="B234" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B235" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B238" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B239" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B240" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B241" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B242" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B243" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B244" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B245" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B246" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B247" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B248" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B249" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B250" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B251" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B252" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B253" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B254" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B255" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B256" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B258" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B259" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B260" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B261" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B262" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B263" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B264" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B265" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B266" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B267" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B268" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B269" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B270" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B271" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B272" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B275" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B276" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B277" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B278" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B279" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B280" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B281" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B282" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B283" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B284" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B285" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B286" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B287" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B288" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B289" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B290" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B291" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B292" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B293" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B296" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B297" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B298" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B299" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B300" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B301" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B302" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B303" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B304" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B305" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B307" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B308" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B309" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B310" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B311" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B312" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B313" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B314" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B315" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B316" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B317" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B318" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B319" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B320" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B321" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B322" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B323" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B324" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B325" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B326" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B327" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B328" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B329" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B330" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B331" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B332" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B333" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B336" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B337" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B338" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B339" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B340" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B341" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B342" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B343" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B344" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B345" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B346" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B347" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B348" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B349" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B350" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B351" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B352" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B353" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B357" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B358" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B359" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B360" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B361" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B362" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B363" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B364" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B365" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B366" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B367" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B368" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B369" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B370" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B371" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B372" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B373" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B374" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B375" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B376" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B377" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B378" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B379" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B380" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B381" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B382" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B383" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B384" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B385" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B386" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B387" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B388" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B389" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B390" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B391" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B392" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B393" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B394" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B396" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B395" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B397" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B398" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B399" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B402" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B403" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B404" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B405" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B406" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B407" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B410" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B411" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B412" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B413" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B414" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B415" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B416" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B417" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B418" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B419" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B420" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B421" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B422" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B423" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B424" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B425" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B426" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B427" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B428" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B429" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B430" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B431" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B432" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B433" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B434" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B435" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B436" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B437" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B438" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B439" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B440" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B441" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B442" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B443" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B444" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B445" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B446" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B447" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B448" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B449" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B451" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B450" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B452" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B453" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B454" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B455" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B456" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B457" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B458" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B459" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B460" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B461" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B462" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B469" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B468" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B467" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B466" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B465" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B464" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B463" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B472" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B473" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B474" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B475" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B476" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B477" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B478" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B481" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B479" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B356" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="B238" r:id="rId215" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B239" r:id="rId216" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B240" r:id="rId217" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B241" r:id="rId218" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B242" r:id="rId219" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B243" r:id="rId220" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B244" r:id="rId221" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B245" r:id="rId222" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B246" r:id="rId223" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B247" r:id="rId224" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B248" r:id="rId225" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B249" r:id="rId226" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B250" r:id="rId227" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B251" r:id="rId228" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B252" r:id="rId229" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B253" r:id="rId230" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B254" r:id="rId231" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B255" r:id="rId232" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B256" r:id="rId233" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B257" r:id="rId234" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B258" r:id="rId235" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B259" r:id="rId236" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B260" r:id="rId237" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B261" r:id="rId238" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B262" r:id="rId239" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B263" r:id="rId240" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B264" r:id="rId241" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B265" r:id="rId242" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B266" r:id="rId243" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B267" r:id="rId244" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B268" r:id="rId245" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B269" r:id="rId246" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B270" r:id="rId247" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B271" r:id="rId248" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B272" r:id="rId249" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B275" r:id="rId250" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B276" r:id="rId251" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B277" r:id="rId252" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B278" r:id="rId253" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B279" r:id="rId254" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B280" r:id="rId255" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B281" r:id="rId256" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B282" r:id="rId257" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B283" r:id="rId258" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B284" r:id="rId259" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B285" r:id="rId260" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B286" r:id="rId261" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B287" r:id="rId262" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B288" r:id="rId263" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B289" r:id="rId264" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B290" r:id="rId265" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B291" r:id="rId266" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B292" r:id="rId267" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B293" r:id="rId268" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B296" r:id="rId269" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B297" r:id="rId270" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B298" r:id="rId271" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B299" r:id="rId272" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B300" r:id="rId273" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B301" r:id="rId274" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B302" r:id="rId275" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B303" r:id="rId276" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B304" r:id="rId277" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B305" r:id="rId278" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B306" r:id="rId279" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B307" r:id="rId280" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B308" r:id="rId281" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B309" r:id="rId282" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B310" r:id="rId283" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B311" r:id="rId284" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B312" r:id="rId285" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B313" r:id="rId286" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B314" r:id="rId287" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B315" r:id="rId288" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B316" r:id="rId289" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B317" r:id="rId290" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B318" r:id="rId291" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B319" r:id="rId292" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B320" r:id="rId293" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B321" r:id="rId294" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B322" r:id="rId295" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B323" r:id="rId296" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B324" r:id="rId297" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B325" r:id="rId298" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B326" r:id="rId299" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B327" r:id="rId300" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B328" r:id="rId301" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B329" r:id="rId302" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B330" r:id="rId303" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B331" r:id="rId304" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B332" r:id="rId305" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B333" r:id="rId306" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B336" r:id="rId307" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B337" r:id="rId308" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B338" r:id="rId309" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B339" r:id="rId310" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B340" r:id="rId311" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B341" r:id="rId312" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B342" r:id="rId313" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B343" r:id="rId314" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B344" r:id="rId315" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B345" r:id="rId316" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B346" r:id="rId317" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B347" r:id="rId318" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B348" r:id="rId319" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B349" r:id="rId320" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B350" r:id="rId321" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B351" r:id="rId322" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B352" r:id="rId323" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B353" r:id="rId324" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B357" r:id="rId325" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B358" r:id="rId326" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B359" r:id="rId327" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B360" r:id="rId328" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B361" r:id="rId329" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B362" r:id="rId330" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B363" r:id="rId331" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B364" r:id="rId332" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B365" r:id="rId333" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B366" r:id="rId334" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B367" r:id="rId335" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B368" r:id="rId336" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B369" r:id="rId337" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B370" r:id="rId338" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B371" r:id="rId339" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B372" r:id="rId340" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B373" r:id="rId341" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B374" r:id="rId342" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B375" r:id="rId343" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B376" r:id="rId344" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B377" r:id="rId345" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B378" r:id="rId346" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B379" r:id="rId347" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B380" r:id="rId348" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B381" r:id="rId349" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B382" r:id="rId350" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B383" r:id="rId351" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B384" r:id="rId352" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B385" r:id="rId353" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B386" r:id="rId354" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B387" r:id="rId355" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B388" r:id="rId356" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B389" r:id="rId357" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B390" r:id="rId358" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B391" r:id="rId359" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B392" r:id="rId360" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B393" r:id="rId361" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B394" r:id="rId362" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B396" r:id="rId363" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B395" r:id="rId364" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B397" r:id="rId365" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B398" r:id="rId366" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B399" r:id="rId367" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B402" r:id="rId368" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B403" r:id="rId369" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B404" r:id="rId370" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B405" r:id="rId371" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B406" r:id="rId372" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B407" r:id="rId373" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B410" r:id="rId374" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B411" r:id="rId375" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B412" r:id="rId376" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B413" r:id="rId377" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B414" r:id="rId378" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B415" r:id="rId379" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B416" r:id="rId380" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B417" r:id="rId381" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B418" r:id="rId382" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B419" r:id="rId383" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B420" r:id="rId384" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B421" r:id="rId385" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B422" r:id="rId386" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B423" r:id="rId387" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B424" r:id="rId388" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B425" r:id="rId389" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B426" r:id="rId390" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B427" r:id="rId391" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B428" r:id="rId392" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B429" r:id="rId393" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B430" r:id="rId394" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B431" r:id="rId395" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B432" r:id="rId396" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B433" r:id="rId397" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B434" r:id="rId398" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B435" r:id="rId399" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B436" r:id="rId400" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B437" r:id="rId401" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B438" r:id="rId402" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B439" r:id="rId403" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B440" r:id="rId404" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B441" r:id="rId405" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B442" r:id="rId406" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B443" r:id="rId407" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B444" r:id="rId408" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B445" r:id="rId409" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B446" r:id="rId410" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B447" r:id="rId411" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B448" r:id="rId412" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B449" r:id="rId413" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B451" r:id="rId414" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B450" r:id="rId415" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B452" r:id="rId416" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B453" r:id="rId417" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B454" r:id="rId418" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B455" r:id="rId419" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B456" r:id="rId420" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B457" r:id="rId421" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B458" r:id="rId422" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B459" r:id="rId423" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B460" r:id="rId424" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B461" r:id="rId425" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B462" r:id="rId426" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B469" r:id="rId427" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B468" r:id="rId428" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B467" r:id="rId429" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B466" r:id="rId430" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B465" r:id="rId431" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B464" r:id="rId432" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B463" r:id="rId433" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B472" r:id="rId434" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B473" r:id="rId435" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B474" r:id="rId436" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B475" r:id="rId437" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B476" r:id="rId438" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B477" r:id="rId439" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B478" r:id="rId440" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B481" r:id="rId441" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B479" r:id="rId442" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B480" r:id="rId443" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B356" r:id="rId444" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B2" r:id="rId445" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="B235" r:id="rId446" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7AF878-7E9F-4BF1-8016-BD7B3A1B4A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630C0FF8-DA55-43BB-BCAA-2EC4DF625516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="83" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="83" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2308,7 +2308,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="21">
@@ -2319,7 +2319,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">
@@ -2330,7 +2330,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="21">
@@ -2341,7 +2341,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="21">
@@ -2352,7 +2352,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="21">

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630C0FF8-DA55-43BB-BCAA-2EC4DF625516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1F7DF0-4255-4D10-989D-886F0198281C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="471">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1423,6 +1423,21 @@
   </si>
   <si>
     <t>&lt;yes&gt;</t>
+  </si>
+  <si>
+    <t>O(N^4)</t>
+  </si>
+  <si>
+    <t>O(N^2LogN)</t>
+  </si>
+  <si>
+    <t>O(N^2)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Space</t>
   </si>
 </sst>
 </file>
@@ -1852,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="83" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="83" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1865,17 +1880,23 @@
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.6">
+    <row r="1" spans="1:5" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="B2" s="10" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" spans="1:5" ht="21">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1886,12 +1907,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21">
+    <row r="6" spans="1:5" ht="21">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1902,7 +1923,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21">
+    <row r="7" spans="1:5" ht="21">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1913,7 +1934,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21">
+    <row r="8" spans="1:5" ht="21">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1924,7 +1945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21">
+    <row r="9" spans="1:5" ht="21">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1935,7 +1956,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21">
+    <row r="10" spans="1:5" ht="21">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1946,7 +1967,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21">
+    <row r="11" spans="1:5" ht="21">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1957,7 +1978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21">
+    <row r="12" spans="1:5" ht="21">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -1968,7 +1989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21">
+    <row r="13" spans="1:5" ht="21">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -1979,7 +2000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21">
+    <row r="14" spans="1:5" ht="21">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -1990,7 +2011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" spans="1:5" ht="21">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -2001,7 +2022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21">
+    <row r="16" spans="1:5" ht="21">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -2355,7 +2376,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21">
+    <row r="49" spans="1:5" ht="21">
       <c r="A49" s="8" t="s">
         <v>42</v>
       </c>
@@ -2366,7 +2387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21">
+    <row r="50" spans="1:5" ht="21">
       <c r="A50" s="8" t="s">
         <v>42</v>
       </c>
@@ -2374,10 +2395,13 @@
         <v>49</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D50" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="21">
       <c r="A51" s="8" t="s">
         <v>42</v>
       </c>
@@ -2385,10 +2409,10 @@
         <v>50</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="21">
       <c r="A52" s="8" t="s">
         <v>42</v>
       </c>
@@ -2396,10 +2420,16 @@
         <v>51</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D52" t="s">
+        <v>467</v>
+      </c>
+      <c r="E52" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="21">
       <c r="A53" s="8" t="s">
         <v>42</v>
       </c>
@@ -2410,12 +2440,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21">
+    <row r="55" spans="1:5" ht="21">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3" ht="21">
+    <row r="56" spans="1:5" ht="21">
       <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
@@ -2426,7 +2456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="21">
+    <row r="57" spans="1:5" ht="21">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
@@ -2437,7 +2467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="21">
+    <row r="58" spans="1:5" ht="21">
       <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
@@ -2448,7 +2478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="21">
+    <row r="59" spans="1:5" ht="21">
       <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
@@ -2459,7 +2489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="21">
+    <row r="60" spans="1:5" ht="21">
       <c r="A60" s="5" t="s">
         <v>53</v>
       </c>
@@ -2470,7 +2500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="21">
+    <row r="61" spans="1:5" ht="21">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
@@ -2481,7 +2511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21">
+    <row r="62" spans="1:5" ht="21">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
@@ -2492,7 +2522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="21">
+    <row r="63" spans="1:5" ht="21">
       <c r="A63" s="5" t="s">
         <v>53</v>
       </c>
@@ -2503,7 +2533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="21">
+    <row r="64" spans="1:5" ht="21">
       <c r="A64" s="5" t="s">
         <v>53</v>
       </c>

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1F7DF0-4255-4D10-989D-886F0198281C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48B656E-B406-4F96-9F99-C98AC38C98A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1438,6 +1438,12 @@
   </si>
   <si>
     <t>Space</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>O(1)</t>
   </si>
 </sst>
 </file>
@@ -1859,7 +1865,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1869,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="83" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="83" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3231,7 +3237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="21">
+    <row r="129" spans="1:5" ht="21">
       <c r="A129" s="5" t="s">
         <v>97</v>
       </c>
@@ -3242,7 +3248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="21">
+    <row r="130" spans="1:5" ht="21">
       <c r="A130" s="5" t="s">
         <v>97</v>
       </c>
@@ -3253,7 +3259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="21">
+    <row r="131" spans="1:5" ht="21">
       <c r="A131" s="5" t="s">
         <v>97</v>
       </c>
@@ -3264,7 +3270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="21">
+    <row r="132" spans="1:5" ht="21">
       <c r="A132" s="5" t="s">
         <v>97</v>
       </c>
@@ -3275,7 +3281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="21">
+    <row r="133" spans="1:5" ht="21">
       <c r="A133" s="5" t="s">
         <v>97</v>
       </c>
@@ -3286,7 +3292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="21">
+    <row r="134" spans="1:5" ht="21">
       <c r="A134" s="5" t="s">
         <v>97</v>
       </c>
@@ -3297,7 +3303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="21">
+    <row r="135" spans="1:5" ht="21">
       <c r="A135" s="5" t="s">
         <v>97</v>
       </c>
@@ -3308,7 +3314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="21">
+    <row r="136" spans="1:5" ht="21">
       <c r="A136" s="5" t="s">
         <v>97</v>
       </c>
@@ -3319,11 +3325,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="21">
+    <row r="138" spans="1:5" ht="21">
       <c r="B138" s="7"/>
       <c r="C138" s="4"/>
     </row>
-    <row r="139" spans="1:3" ht="21">
+    <row r="139" spans="1:5" ht="21">
       <c r="A139" s="8" t="s">
         <v>134</v>
       </c>
@@ -3331,10 +3337,16 @@
         <v>135</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D139" t="s">
+        <v>471</v>
+      </c>
+      <c r="E139" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="21">
       <c r="A140" s="8" t="s">
         <v>134</v>
       </c>
@@ -3342,10 +3354,16 @@
         <v>136</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D140" t="s">
+        <v>471</v>
+      </c>
+      <c r="E140" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="21">
       <c r="A141" s="8" t="s">
         <v>134</v>
       </c>
@@ -3353,10 +3371,16 @@
         <v>137</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D141" t="s">
+        <v>471</v>
+      </c>
+      <c r="E141" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="21">
       <c r="A142" s="8" t="s">
         <v>134</v>
       </c>
@@ -3364,10 +3388,16 @@
         <v>138</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D142" t="s">
+        <v>471</v>
+      </c>
+      <c r="E142" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="21">
       <c r="A143" s="8" t="s">
         <v>134</v>
       </c>
@@ -3375,10 +3405,16 @@
         <v>139</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D143" t="s">
+        <v>471</v>
+      </c>
+      <c r="E143" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="21">
       <c r="A144" s="8" t="s">
         <v>134</v>
       </c>
@@ -3386,10 +3422,16 @@
         <v>140</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D144" t="s">
+        <v>471</v>
+      </c>
+      <c r="E144" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="21">
       <c r="A145" s="8" t="s">
         <v>134</v>
       </c>
@@ -3397,10 +3439,16 @@
         <v>141</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D145" t="s">
+        <v>471</v>
+      </c>
+      <c r="E145" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="21">
       <c r="A146" s="8" t="s">
         <v>134</v>
       </c>
@@ -3408,10 +3456,16 @@
         <v>142</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D146" t="s">
+        <v>471</v>
+      </c>
+      <c r="E146" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="21">
       <c r="A147" s="8" t="s">
         <v>134</v>
       </c>
@@ -3419,10 +3473,16 @@
         <v>143</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D147" t="s">
+        <v>471</v>
+      </c>
+      <c r="E147" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="21">
       <c r="A148" s="8" t="s">
         <v>134</v>
       </c>
@@ -3430,10 +3490,16 @@
         <v>144</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D148" t="s">
+        <v>471</v>
+      </c>
+      <c r="E148" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="21">
       <c r="A149" s="8" t="s">
         <v>134</v>
       </c>
@@ -3444,7 +3510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="21">
+    <row r="150" spans="1:5" ht="21">
       <c r="A150" s="8" t="s">
         <v>134</v>
       </c>
@@ -3455,7 +3521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="21">
+    <row r="151" spans="1:5" ht="21">
       <c r="A151" s="8" t="s">
         <v>134</v>
       </c>
@@ -3466,7 +3532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="21">
+    <row r="152" spans="1:5" ht="21">
       <c r="A152" s="8" t="s">
         <v>134</v>
       </c>
@@ -3477,7 +3543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="21">
+    <row r="153" spans="1:5" ht="21">
       <c r="A153" s="8" t="s">
         <v>134</v>
       </c>
@@ -3488,7 +3554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="21">
+    <row r="154" spans="1:5" ht="21">
       <c r="A154" s="8" t="s">
         <v>134</v>
       </c>
@@ -3499,7 +3565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="21">
+    <row r="155" spans="1:5" ht="21">
       <c r="A155" s="8" t="s">
         <v>134</v>
       </c>
@@ -3510,7 +3576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="21">
+    <row r="156" spans="1:5" ht="21">
       <c r="A156" s="8" t="s">
         <v>134</v>
       </c>
@@ -3521,7 +3587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="21">
+    <row r="157" spans="1:5" ht="21">
       <c r="A157" s="8" t="s">
         <v>134</v>
       </c>
@@ -3532,7 +3598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="21">
+    <row r="158" spans="1:5" ht="21">
       <c r="A158" s="8" t="s">
         <v>134</v>
       </c>
@@ -3543,7 +3609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="21">
+    <row r="159" spans="1:5" ht="21">
       <c r="A159" s="8" t="s">
         <v>134</v>
       </c>
@@ -3554,7 +3620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="21">
+    <row r="160" spans="1:5" ht="21">
       <c r="A160" s="8" t="s">
         <v>134</v>
       </c>

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48B656E-B406-4F96-9F99-C98AC38C98A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77B015C-159B-4BC1-98B3-F84C07B6C6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="476">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1444,6 +1444,15 @@
   </si>
   <si>
     <t>O(1)</t>
+  </si>
+  <si>
+    <t>O(n+m)</t>
+  </si>
+  <si>
+    <t>O(max(n,m))</t>
+  </si>
+  <si>
+    <t>O(nlogn)</t>
   </si>
 </sst>
 </file>
@@ -1875,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="83" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="83" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3507,7 +3516,13 @@
         <v>145</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D149" t="s">
+        <v>473</v>
+      </c>
+      <c r="E149" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="21">
@@ -3518,7 +3533,13 @@
         <v>146</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D150" t="s">
+        <v>474</v>
+      </c>
+      <c r="E150" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="21">
@@ -3529,7 +3550,13 @@
         <v>147</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D151" t="s">
+        <v>475</v>
+      </c>
+      <c r="E151" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="21">
@@ -3551,7 +3578,13 @@
         <v>149</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D153" t="s">
+        <v>471</v>
+      </c>
+      <c r="E153" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="21">
@@ -3562,7 +3595,13 @@
         <v>150</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D154" t="s">
+        <v>471</v>
+      </c>
+      <c r="E154" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="21">
@@ -3573,7 +3612,13 @@
         <v>151</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D155" t="s">
+        <v>471</v>
+      </c>
+      <c r="E155" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="21">
@@ -3584,7 +3629,13 @@
         <v>152</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D156" t="s">
+        <v>471</v>
+      </c>
+      <c r="E156" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="21">
@@ -3595,7 +3646,13 @@
         <v>153</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D157" t="s">
+        <v>471</v>
+      </c>
+      <c r="E157" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="21">
@@ -3606,7 +3663,13 @@
         <v>154</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D158" t="s">
+        <v>471</v>
+      </c>
+      <c r="E158" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="21">
@@ -3617,7 +3680,13 @@
         <v>155</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D159" t="s">
+        <v>471</v>
+      </c>
+      <c r="E159" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="21">

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77B015C-159B-4BC1-98B3-F84C07B6C6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166F212E-13A6-494E-BC4F-877FF9A61EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="477">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1453,6 +1453,9 @@
   </si>
   <si>
     <t>O(nlogn)</t>
+  </si>
+  <si>
+    <t>O(h)</t>
   </si>
 </sst>
 </file>
@@ -1884,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="83" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3858,7 +3861,7 @@
       <c r="B176" s="7"/>
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="1:3" ht="21">
+    <row r="177" spans="1:5" ht="21">
       <c r="A177" s="5" t="s">
         <v>171</v>
       </c>
@@ -3866,10 +3869,16 @@
         <v>172</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D177" t="s">
+        <v>471</v>
+      </c>
+      <c r="E177" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="21">
       <c r="A178" s="5" t="s">
         <v>171</v>
       </c>
@@ -3877,10 +3886,16 @@
         <v>173</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D178" t="s">
+        <v>471</v>
+      </c>
+      <c r="E178" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="21">
       <c r="A179" s="5" t="s">
         <v>171</v>
       </c>
@@ -3888,10 +3903,16 @@
         <v>174</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D179" t="s">
+        <v>471</v>
+      </c>
+      <c r="E179" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="21">
       <c r="A180" s="5" t="s">
         <v>171</v>
       </c>
@@ -3899,10 +3920,16 @@
         <v>175</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D180" t="s">
+        <v>471</v>
+      </c>
+      <c r="E180" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="21">
       <c r="A181" s="5" t="s">
         <v>171</v>
       </c>
@@ -3910,10 +3937,16 @@
         <v>176</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D181" t="s">
+        <v>471</v>
+      </c>
+      <c r="E181" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="21">
       <c r="A182" s="5" t="s">
         <v>171</v>
       </c>
@@ -3921,10 +3954,16 @@
         <v>177</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D182" t="s">
+        <v>471</v>
+      </c>
+      <c r="E182" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="21">
       <c r="A183" s="5" t="s">
         <v>171</v>
       </c>
@@ -3932,10 +3971,16 @@
         <v>178</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D183" t="s">
+        <v>471</v>
+      </c>
+      <c r="E183" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="21">
       <c r="A184" s="5" t="s">
         <v>171</v>
       </c>
@@ -3943,10 +3988,16 @@
         <v>179</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D184" t="s">
+        <v>471</v>
+      </c>
+      <c r="E184" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="21">
       <c r="A185" s="5" t="s">
         <v>171</v>
       </c>
@@ -3954,10 +4005,16 @@
         <v>180</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D185" t="s">
+        <v>471</v>
+      </c>
+      <c r="E185" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="21">
       <c r="A186" s="5" t="s">
         <v>171</v>
       </c>
@@ -3965,10 +4022,16 @@
         <v>181</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D186" t="s">
+        <v>471</v>
+      </c>
+      <c r="E186" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="21">
       <c r="A187" s="5" t="s">
         <v>171</v>
       </c>
@@ -3976,10 +4039,16 @@
         <v>182</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D187" t="s">
+        <v>471</v>
+      </c>
+      <c r="E187" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="21">
       <c r="A188" s="5" t="s">
         <v>171</v>
       </c>
@@ -3987,10 +4056,16 @@
         <v>183</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D188" t="s">
+        <v>471</v>
+      </c>
+      <c r="E188" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="21">
       <c r="A189" s="5" t="s">
         <v>171</v>
       </c>
@@ -3998,10 +4073,16 @@
         <v>184</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D189" t="s">
+        <v>471</v>
+      </c>
+      <c r="E189" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="21">
       <c r="A190" s="5" t="s">
         <v>171</v>
       </c>
@@ -4009,10 +4090,16 @@
         <v>185</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D190" t="s">
+        <v>471</v>
+      </c>
+      <c r="E190" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="21">
       <c r="A191" s="5" t="s">
         <v>171</v>
       </c>
@@ -4023,7 +4110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="21">
+    <row r="192" spans="1:5" ht="21">
       <c r="A192" s="5" t="s">
         <v>171</v>
       </c>

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166F212E-13A6-494E-BC4F-877FF9A61EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFAD74B-9B1C-4D86-8974-C6B9B76EA152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="478">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1456,6 +1456,9 @@
   </si>
   <si>
     <t>O(h)</t>
+  </si>
+  <si>
+    <t>O(n^2)</t>
   </si>
 </sst>
 </file>
@@ -1887,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F184" sqref="F184"/>
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4107,7 +4110,13 @@
         <v>186</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D191" t="s">
+        <v>471</v>
+      </c>
+      <c r="E191" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="21">
@@ -4118,10 +4127,16 @@
         <v>187</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D192" t="s">
+        <v>471</v>
+      </c>
+      <c r="E192" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="21">
       <c r="A193" s="5" t="s">
         <v>171</v>
       </c>
@@ -4129,10 +4144,16 @@
         <v>188</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D193" t="s">
+        <v>471</v>
+      </c>
+      <c r="E193" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="21">
       <c r="A194" s="5" t="s">
         <v>171</v>
       </c>
@@ -4140,10 +4161,16 @@
         <v>189</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D194" t="s">
+        <v>471</v>
+      </c>
+      <c r="E194" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="21">
       <c r="A195" s="5" t="s">
         <v>171</v>
       </c>
@@ -4151,10 +4178,16 @@
         <v>190</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D195" t="s">
+        <v>471</v>
+      </c>
+      <c r="E195" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="21">
       <c r="A196" s="5" t="s">
         <v>171</v>
       </c>
@@ -4162,10 +4195,16 @@
         <v>191</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D196" t="s">
+        <v>477</v>
+      </c>
+      <c r="E196" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="21">
       <c r="A197" s="5" t="s">
         <v>171</v>
       </c>
@@ -4176,7 +4215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="21">
+    <row r="198" spans="1:5" ht="21">
       <c r="A198" s="5" t="s">
         <v>171</v>
       </c>
@@ -4184,10 +4223,16 @@
         <v>193</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D198" t="s">
+        <v>471</v>
+      </c>
+      <c r="E198" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="21">
       <c r="A199" s="5" t="s">
         <v>171</v>
       </c>
@@ -4195,10 +4240,16 @@
         <v>194</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D199" t="s">
+        <v>471</v>
+      </c>
+      <c r="E199" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="21">
       <c r="A200" s="5" t="s">
         <v>171</v>
       </c>
@@ -4209,7 +4260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="21">
+    <row r="201" spans="1:5" ht="21">
       <c r="A201" s="5" t="s">
         <v>171</v>
       </c>
@@ -4220,7 +4271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="21">
+    <row r="202" spans="1:5" ht="21">
       <c r="A202" s="5" t="s">
         <v>171</v>
       </c>
@@ -4231,7 +4282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="21">
+    <row r="203" spans="1:5" ht="21">
       <c r="A203" s="5" t="s">
         <v>171</v>
       </c>
@@ -4242,7 +4293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="21">
+    <row r="204" spans="1:5" ht="21">
       <c r="A204" s="5" t="s">
         <v>171</v>
       </c>
@@ -4253,7 +4304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="21">
+    <row r="205" spans="1:5" ht="21">
       <c r="A205" s="5" t="s">
         <v>171</v>
       </c>
@@ -4264,7 +4315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="21">
+    <row r="206" spans="1:5" ht="21">
       <c r="A206" s="5" t="s">
         <v>171</v>
       </c>
@@ -4275,7 +4326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="21">
+    <row r="207" spans="1:5" ht="21">
       <c r="A207" s="5" t="s">
         <v>171</v>
       </c>
@@ -4286,7 +4337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="21">
+    <row r="208" spans="1:5" ht="21">
       <c r="A208" s="5" t="s">
         <v>171</v>
       </c>

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFAD74B-9B1C-4D86-8974-C6B9B76EA152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F398C02C-C390-45D8-A77C-FDF11AEA9E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="478">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1890,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4257,7 +4257,13 @@
         <v>195</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D200" t="s">
+        <v>477</v>
+      </c>
+      <c r="E200" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="21">

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F398C02C-C390-45D8-A77C-FDF11AEA9E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C6E73D-6C4E-46E8-A82C-56F52AF44F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="479">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1459,6 +1459,9 @@
   </si>
   <si>
     <t>O(n^2)</t>
+  </si>
+  <si>
+    <t>O(nLog(n))</t>
   </si>
 </sst>
 </file>
@@ -1890,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D189" sqref="D189"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H206" sqref="H206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4212,7 +4215,13 @@
         <v>192</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D197" t="s">
+        <v>478</v>
+      </c>
+      <c r="E197" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="21">
@@ -4285,7 +4294,13 @@
         <v>197</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D202" t="s">
+        <v>471</v>
+      </c>
+      <c r="E202" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="21">
@@ -4307,7 +4322,13 @@
         <v>199</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D204" t="s">
+        <v>471</v>
+      </c>
+      <c r="E204" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="21">
@@ -4318,7 +4339,13 @@
         <v>200</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D205" t="s">
+        <v>471</v>
+      </c>
+      <c r="E205" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="21">
@@ -4329,7 +4356,13 @@
         <v>201</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D206" t="s">
+        <v>471</v>
+      </c>
+      <c r="E206" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="21">
@@ -4340,7 +4373,13 @@
         <v>202</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D207" t="s">
+        <v>471</v>
+      </c>
+      <c r="E207" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="21">
@@ -4351,10 +4390,16 @@
         <v>203</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D208" t="s">
+        <v>471</v>
+      </c>
+      <c r="E208" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="21">
       <c r="A209" s="5" t="s">
         <v>171</v>
       </c>
@@ -4362,10 +4407,16 @@
         <v>204</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D209" t="s">
+        <v>471</v>
+      </c>
+      <c r="E209" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="21">
       <c r="A210" s="5" t="s">
         <v>171</v>
       </c>
@@ -4373,10 +4424,16 @@
         <v>205</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D210" t="s">
+        <v>477</v>
+      </c>
+      <c r="E210" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="21">
       <c r="A211" s="5" t="s">
         <v>171</v>
       </c>
@@ -4387,17 +4444,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="21">
+    <row r="212" spans="1:5" ht="21">
       <c r="A212" s="8"/>
       <c r="B212" s="7"/>
       <c r="C212" s="4"/>
     </row>
-    <row r="213" spans="1:3" ht="21">
+    <row r="213" spans="1:5" ht="21">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
       <c r="C213" s="4"/>
     </row>
-    <row r="214" spans="1:3" ht="21">
+    <row r="214" spans="1:5" ht="21">
       <c r="A214" s="5" t="s">
         <v>207</v>
       </c>
@@ -4408,7 +4465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="21">
+    <row r="215" spans="1:5" ht="21">
       <c r="A215" s="5" t="s">
         <v>207</v>
       </c>
@@ -4419,7 +4476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="21">
+    <row r="216" spans="1:5" ht="21">
       <c r="A216" s="5" t="s">
         <v>207</v>
       </c>
@@ -4430,7 +4487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="21">
+    <row r="217" spans="1:5" ht="21">
       <c r="A217" s="5" t="s">
         <v>207</v>
       </c>
@@ -4441,7 +4498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="21">
+    <row r="218" spans="1:5" ht="21">
       <c r="A218" s="5" t="s">
         <v>207</v>
       </c>
@@ -4452,7 +4509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="21">
+    <row r="219" spans="1:5" ht="21">
       <c r="A219" s="5" t="s">
         <v>207</v>
       </c>
@@ -4463,7 +4520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="21">
+    <row r="220" spans="1:5" ht="21">
       <c r="A220" s="5" t="s">
         <v>207</v>
       </c>
@@ -4474,7 +4531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="21">
+    <row r="221" spans="1:5" ht="21">
       <c r="A221" s="5" t="s">
         <v>207</v>
       </c>
@@ -4485,7 +4542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="21">
+    <row r="222" spans="1:5" ht="21">
       <c r="A222" s="5" t="s">
         <v>207</v>
       </c>
@@ -4496,7 +4553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="21">
+    <row r="223" spans="1:5" ht="21">
       <c r="A223" s="5" t="s">
         <v>207</v>
       </c>
@@ -4507,7 +4564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="21">
+    <row r="224" spans="1:5" ht="21">
       <c r="A224" s="5" t="s">
         <v>207</v>
       </c>

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C6E73D-6C4E-46E8-A82C-56F52AF44F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323D8E96-5727-4CA5-AF45-2299F3E3888A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="479">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1893,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H206" sqref="H206"/>
+    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F207" sqref="F207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4441,7 +4441,13 @@
         <v>206</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D211" t="s">
+        <v>471</v>
+      </c>
+      <c r="E211" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="21">
@@ -4462,7 +4468,13 @@
         <v>208</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D214" t="s">
+        <v>476</v>
+      </c>
+      <c r="E214" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="21">
@@ -4473,7 +4485,13 @@
         <v>209</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D215" t="s">
+        <v>471</v>
+      </c>
+      <c r="E215" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="21">
@@ -4484,7 +4502,13 @@
         <v>210</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D216" t="s">
+        <v>471</v>
+      </c>
+      <c r="E216" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="21">
@@ -4495,7 +4519,13 @@
         <v>211</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D217" t="s">
+        <v>471</v>
+      </c>
+      <c r="E217" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="21">
@@ -4506,7 +4536,13 @@
         <v>212</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D218" t="s">
+        <v>471</v>
+      </c>
+      <c r="E218" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="21">

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323D8E96-5727-4CA5-AF45-2299F3E3888A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D18CF58-4B66-4E28-A121-6F7186DEFFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="479">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1893,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F207" sqref="F207"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H229" sqref="H229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4553,7 +4553,13 @@
         <v>213</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D219" t="s">
+        <v>471</v>
+      </c>
+      <c r="E219" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="21">
@@ -4564,7 +4570,13 @@
         <v>214</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D220" t="s">
+        <v>471</v>
+      </c>
+      <c r="E220" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="21">
@@ -4575,7 +4587,13 @@
         <v>215</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D221" t="s">
+        <v>471</v>
+      </c>
+      <c r="E221" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="21">

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D18CF58-4B66-4E28-A121-6F7186DEFFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3818550A-BB88-4BAA-8C71-8A47A0EB6ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="479">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1893,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H229" sqref="H229"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F218" sqref="F218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4604,7 +4604,13 @@
         <v>216</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D222" t="s">
+        <v>478</v>
+      </c>
+      <c r="E222" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="21">
@@ -4615,7 +4621,13 @@
         <v>217</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D223" t="s">
+        <v>471</v>
+      </c>
+      <c r="E223" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="21">
@@ -4629,7 +4641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="21">
+    <row r="225" spans="1:5" ht="21">
       <c r="A225" s="5" t="s">
         <v>207</v>
       </c>
@@ -4637,10 +4649,16 @@
         <v>219</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D225" t="s">
+        <v>471</v>
+      </c>
+      <c r="E225" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="21">
       <c r="A226" s="5" t="s">
         <v>207</v>
       </c>
@@ -4648,10 +4666,16 @@
         <v>220</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D226" t="s">
+        <v>471</v>
+      </c>
+      <c r="E226" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="21">
       <c r="A227" s="5" t="s">
         <v>207</v>
       </c>
@@ -4662,7 +4686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="21">
+    <row r="228" spans="1:5" ht="21">
       <c r="A228" s="5" t="s">
         <v>207</v>
       </c>
@@ -4673,7 +4697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="21">
+    <row r="229" spans="1:5" ht="21">
       <c r="A229" s="5" t="s">
         <v>207</v>
       </c>
@@ -4684,7 +4708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="21">
+    <row r="230" spans="1:5" ht="21">
       <c r="A230" s="5" t="s">
         <v>207</v>
       </c>
@@ -4695,7 +4719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="21">
+    <row r="231" spans="1:5" ht="21">
       <c r="A231" s="5" t="s">
         <v>207</v>
       </c>
@@ -4706,7 +4730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="21">
+    <row r="232" spans="1:5" ht="21">
       <c r="A232" s="5" t="s">
         <v>207</v>
       </c>
@@ -4717,7 +4741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="21">
+    <row r="233" spans="1:5" ht="21">
       <c r="A233" s="5" t="s">
         <v>207</v>
       </c>
@@ -4728,7 +4752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="21">
+    <row r="234" spans="1:5" ht="21">
       <c r="A234" s="5" t="s">
         <v>207</v>
       </c>
@@ -4739,7 +4763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="21">
+    <row r="235" spans="1:5" ht="21">
       <c r="A235" s="5" t="s">
         <v>207</v>
       </c>
@@ -4750,15 +4774,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="21">
+    <row r="236" spans="1:5" ht="21">
       <c r="B236" s="7"/>
       <c r="C236" s="4"/>
     </row>
-    <row r="237" spans="1:3" ht="21">
+    <row r="237" spans="1:5" ht="21">
       <c r="B237" s="7"/>
       <c r="C237" s="4"/>
     </row>
-    <row r="238" spans="1:3" ht="21">
+    <row r="238" spans="1:5" ht="21">
       <c r="A238" s="5" t="s">
         <v>230</v>
       </c>
@@ -4769,7 +4793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="21">
+    <row r="239" spans="1:5" ht="21">
       <c r="A239" s="5" t="s">
         <v>230</v>
       </c>
@@ -4780,7 +4804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="21">
+    <row r="240" spans="1:5" ht="21">
       <c r="A240" s="5" t="s">
         <v>230</v>
       </c>

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3818550A-BB88-4BAA-8C71-8A47A0EB6ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C764BE5-9FB0-413A-9910-88D0C0B203D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1893,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F218" sqref="F218"/>
+    <sheetView tabSelected="1" topLeftCell="A330" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D339" sqref="D339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C764BE5-9FB0-413A-9910-88D0C0B203D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6A0CA4-DD78-4B64-B51B-01F02D1AF78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="480">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1462,6 +1462,9 @@
   </si>
   <si>
     <t>O(nLog(n))</t>
+  </si>
+  <si>
+    <t>O(nlogn + mlogm)</t>
   </si>
 </sst>
 </file>
@@ -1893,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D339" sqref="D339"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1946,6 +1949,12 @@
       <c r="C6" s="4" t="s">
         <v>465</v>
       </c>
+      <c r="D6" t="s">
+        <v>471</v>
+      </c>
+      <c r="E6" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="21">
       <c r="A7" s="5" t="s">
@@ -1957,6 +1966,12 @@
       <c r="C7" s="4" t="s">
         <v>465</v>
       </c>
+      <c r="D7" t="s">
+        <v>471</v>
+      </c>
+      <c r="E7" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="21">
       <c r="A8" s="5" t="s">
@@ -1966,7 +1981,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E8" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21">
@@ -1979,6 +2000,12 @@
       <c r="C9" s="4" t="s">
         <v>465</v>
       </c>
+      <c r="D9" t="s">
+        <v>471</v>
+      </c>
+      <c r="E9" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="21">
       <c r="A10" s="5" t="s">
@@ -1990,6 +2017,12 @@
       <c r="C10" s="4" t="s">
         <v>465</v>
       </c>
+      <c r="D10" t="s">
+        <v>471</v>
+      </c>
+      <c r="E10" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="21">
       <c r="A11" s="5" t="s">
@@ -1999,7 +2032,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D11" t="s">
+        <v>473</v>
+      </c>
+      <c r="E11" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21">
@@ -2010,7 +2049,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D12" t="s">
+        <v>471</v>
+      </c>
+      <c r="E12" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21">
@@ -2021,7 +2066,13 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D13" t="s">
+        <v>471</v>
+      </c>
+      <c r="E13" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21">
@@ -2032,7 +2083,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D14" t="s">
+        <v>471</v>
+      </c>
+      <c r="E14" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21">
@@ -2043,7 +2100,13 @@
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D15" t="s">
+        <v>471</v>
+      </c>
+      <c r="E15" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21">
@@ -2054,10 +2117,16 @@
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D16" t="s">
+        <v>471</v>
+      </c>
+      <c r="E16" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -2065,10 +2134,16 @@
         <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D17" t="s">
+        <v>479</v>
+      </c>
+      <c r="E17" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -2076,10 +2151,16 @@
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D18" t="s">
+        <v>471</v>
+      </c>
+      <c r="E18" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2087,10 +2168,16 @@
         <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D19" t="s">
+        <v>475</v>
+      </c>
+      <c r="E19" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2101,7 +2188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21">
+    <row r="21" spans="1:5" ht="21">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2112,7 +2199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21">
+    <row r="22" spans="1:5" ht="21">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2123,7 +2210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21">
+    <row r="23" spans="1:5" ht="21">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -2134,7 +2221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21">
+    <row r="24" spans="1:5" ht="21">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -2145,7 +2232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21">
+    <row r="25" spans="1:5" ht="21">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2156,7 +2243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21">
+    <row r="26" spans="1:5" ht="21">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -2167,7 +2254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21">
+    <row r="27" spans="1:5" ht="21">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2178,7 +2265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21">
+    <row r="28" spans="1:5" ht="21">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -2189,7 +2276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21">
+    <row r="29" spans="1:5" ht="21">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2200,7 +2287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21">
+    <row r="30" spans="1:5" ht="21">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2211,7 +2298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21">
+    <row r="31" spans="1:5" ht="21">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -2222,7 +2309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21">
+    <row r="32" spans="1:5" ht="21">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6A0CA4-DD78-4B64-B51B-01F02D1AF78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83E0C27-300E-416E-8AD3-A11E79994964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1896,7 +1896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83E0C27-300E-416E-8AD3-A11E79994964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AF68A6-F19C-4E31-9ED1-78306DBC23D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1897,7 +1897,7 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AF68A6-F19C-4E31-9ED1-78306DBC23D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2AE0AF-5B1A-4F3C-8D29-CB735F6D06CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="481">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1465,6 +1465,9 @@
   </si>
   <si>
     <t>O(nlogn + mlogm)</t>
+  </si>
+  <si>
+    <t>O(nLogn)</t>
   </si>
 </sst>
 </file>
@@ -1896,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2185,7 +2188,13 @@
         <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D20" t="s">
+        <v>471</v>
+      </c>
+      <c r="E20" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21">
@@ -2196,7 +2205,13 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D21" t="s">
+        <v>480</v>
+      </c>
+      <c r="E21" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21">
@@ -2207,7 +2222,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D22" t="s">
+        <v>471</v>
+      </c>
+      <c r="E22" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21">

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2AE0AF-5B1A-4F3C-8D29-CB735F6D06CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44729EE7-CF9B-48DC-9D21-E5634FF07C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="483">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1468,6 +1468,12 @@
   </si>
   <si>
     <t>O(nLogn)</t>
+  </si>
+  <si>
+    <t>O(n1 + n2 + n3)</t>
+  </si>
+  <si>
+    <t>or</t>
   </si>
 </sst>
 </file>
@@ -1897,10 +1903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:E481"/>
+  <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2129,7 +2135,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="21">
+    <row r="17" spans="1:8" ht="21">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -2146,7 +2152,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="21">
+    <row r="18" spans="1:8" ht="21">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -2163,7 +2169,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="21">
+    <row r="19" spans="1:8" ht="21">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2180,7 +2186,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="21">
+    <row r="20" spans="1:8" ht="21">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2197,7 +2203,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="21">
+    <row r="21" spans="1:8" ht="21">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2214,7 +2220,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="21">
+    <row r="22" spans="1:8" ht="21">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2231,7 +2237,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="21">
+    <row r="23" spans="1:8" ht="21">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -2239,10 +2245,16 @@
         <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D23" t="s">
+        <v>471</v>
+      </c>
+      <c r="E23" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="21">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -2250,10 +2262,16 @@
         <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D24" t="s">
+        <v>481</v>
+      </c>
+      <c r="E24" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="21">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2261,10 +2279,25 @@
         <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D25" t="s">
+        <v>471</v>
+      </c>
+      <c r="E25" t="s">
+        <v>471</v>
+      </c>
+      <c r="F25" t="s">
+        <v>482</v>
+      </c>
+      <c r="G25" t="s">
+        <v>477</v>
+      </c>
+      <c r="H25" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="21">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -2272,10 +2305,16 @@
         <v>26</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D26" t="s">
+        <v>471</v>
+      </c>
+      <c r="E26" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="21">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2283,10 +2322,16 @@
         <v>27</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D27" t="s">
+        <v>477</v>
+      </c>
+      <c r="E27" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="21">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -2294,10 +2339,16 @@
         <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D28" t="s">
+        <v>471</v>
+      </c>
+      <c r="E28" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="21">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2308,7 +2359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="21">
+    <row r="30" spans="1:8" ht="21">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2319,7 +2370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="21">
+    <row r="31" spans="1:8" ht="21">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -2330,7 +2381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="21">
+    <row r="32" spans="1:8" ht="21">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44729EE7-CF9B-48DC-9D21-E5634FF07C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A84ED7-401A-4C4F-9868-D9833029A02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="484">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1474,6 +1474,9 @@
   </si>
   <si>
     <t>or</t>
+  </si>
+  <si>
+    <t>DP</t>
   </si>
 </sst>
 </file>
@@ -1903,10 +1906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:H481"/>
+  <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:E28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2135,7 +2138,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="21">
+    <row r="17" spans="1:9" ht="21">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -2152,7 +2155,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="21">
+    <row r="18" spans="1:9" ht="21">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -2169,7 +2172,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="21">
+    <row r="19" spans="1:9" ht="21">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2186,7 +2189,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="21">
+    <row r="20" spans="1:9" ht="21">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="21">
+    <row r="21" spans="1:9" ht="21">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2220,7 +2223,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="21">
+    <row r="22" spans="1:9" ht="21">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2237,7 +2240,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="21">
+    <row r="23" spans="1:9" ht="21">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -2254,7 +2257,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="21">
+    <row r="24" spans="1:9" ht="21">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -2271,7 +2274,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="21">
+    <row r="25" spans="1:9" ht="21">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="21">
+    <row r="26" spans="1:9" ht="21">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="21">
+    <row r="27" spans="1:9" ht="21">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2331,7 +2334,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="21">
+    <row r="28" spans="1:9" ht="21">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -2348,7 +2351,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="21">
+    <row r="29" spans="1:9" ht="21">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2356,10 +2359,16 @@
         <v>29</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D29" t="s">
+        <v>471</v>
+      </c>
+      <c r="E29" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="21">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2367,10 +2376,16 @@
         <v>30</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E30" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="21">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -2380,8 +2395,11 @@
       <c r="C31" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="21">
+      <c r="I31" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="21">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -2389,10 +2407,16 @@
         <v>32</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D32" t="s">
+        <v>471</v>
+      </c>
+      <c r="E32" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="21">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
@@ -2400,10 +2424,16 @@
         <v>33</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D33" t="s">
+        <v>477</v>
+      </c>
+      <c r="E33" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -2414,7 +2444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21">
+    <row r="35" spans="1:5" ht="21">
       <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
@@ -2425,7 +2455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21">
+    <row r="36" spans="1:5" ht="21">
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
@@ -2436,7 +2466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21">
+    <row r="37" spans="1:5" ht="21">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
@@ -2447,7 +2477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21">
+    <row r="38" spans="1:5" ht="21">
       <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
@@ -2458,7 +2488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21">
+    <row r="39" spans="1:5" ht="21">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
@@ -2469,7 +2499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21">
+    <row r="40" spans="1:5" ht="21">
       <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
@@ -2480,7 +2510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21">
+    <row r="41" spans="1:5" ht="21">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -2491,20 +2521,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21">
+    <row r="42" spans="1:5" ht="21">
       <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21">
+    <row r="43" spans="1:5" ht="21">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21">
+    <row r="44" spans="1:5" ht="21">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
@@ -2515,7 +2545,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21">
+    <row r="45" spans="1:5" ht="21">
       <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
@@ -2526,7 +2556,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21">
+    <row r="46" spans="1:5" ht="21">
       <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
@@ -2537,7 +2567,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21">
+    <row r="47" spans="1:5" ht="21">
       <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
@@ -2548,7 +2578,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21">
+    <row r="48" spans="1:5" ht="21">
       <c r="A48" s="8" t="s">
         <v>42</v>
       </c>

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A84ED7-401A-4C4F-9868-D9833029A02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D27D58-857F-492B-A191-057BAEDFF64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="484">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1909,7 +1909,7 @@
   <dimension ref="A1:I481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="C36" sqref="C36:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2441,7 +2441,13 @@
         <v>34</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E34" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="21">
@@ -2452,7 +2458,13 @@
         <v>35</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D35" t="s">
+        <v>471</v>
+      </c>
+      <c r="E35" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="21">
@@ -2463,7 +2475,13 @@
         <v>36</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D36" t="s">
+        <v>471</v>
+      </c>
+      <c r="E36" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="21">

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D27D58-857F-492B-A191-057BAEDFF64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF5F955-9D0B-4853-8A0E-D52EAC06546C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="485">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1477,6 +1477,9 @@
   </si>
   <si>
     <t>DP</t>
+  </si>
+  <si>
+    <t>O(logN)</t>
   </si>
 </sst>
 </file>
@@ -1909,7 +1912,7 @@
   <dimension ref="A1:I481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:E36"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2492,7 +2495,13 @@
         <v>37</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D37" t="s">
+        <v>471</v>
+      </c>
+      <c r="E37" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="21">
@@ -2503,7 +2512,13 @@
         <v>38</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D38" t="s">
+        <v>471</v>
+      </c>
+      <c r="E38" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="21">
@@ -2525,7 +2540,13 @@
         <v>40</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D40" t="s">
+        <v>484</v>
+      </c>
+      <c r="E40" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="21">

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF5F955-9D0B-4853-8A0E-D52EAC06546C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD6E3B8-D33D-4697-B5E5-C5180452FAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="486">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1480,6 +1480,9 @@
   </si>
   <si>
     <t>O(logN)</t>
+  </si>
+  <si>
+    <t>O(min(logN, logM))</t>
   </si>
 </sst>
 </file>
@@ -1911,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1920,6 +1923,7 @@
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="16.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.6">
@@ -2557,21 +2561,23 @@
         <v>41</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D41" t="s">
+        <v>485</v>
+      </c>
+      <c r="E41" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="21">
       <c r="B42" s="7"/>
-      <c r="C42" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="21">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="21">
       <c r="A44" s="8" t="s">

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD6E3B8-D33D-4697-B5E5-C5180452FAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B491B7B-74A0-468C-8587-3CE04B5D0F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="492">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1483,6 +1483,24 @@
   </si>
   <si>
     <t>O(min(logN, logM))</t>
+  </si>
+  <si>
+    <t>O(r*c)</t>
+  </si>
+  <si>
+    <t>O(log(m*n))</t>
+  </si>
+  <si>
+    <t>O(32*r*logc)</t>
+  </si>
+  <si>
+    <t>O(r*logc)</t>
+  </si>
+  <si>
+    <t>O(col)</t>
+  </si>
+  <si>
+    <t>O(row*col)</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +1591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1597,6 +1615,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1914,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52:H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2423,7 +2442,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="21">
+    <row r="33" spans="1:8" ht="21">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
@@ -2440,7 +2459,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="21">
+    <row r="34" spans="1:8" ht="21">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -2457,7 +2476,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="21">
+    <row r="35" spans="1:8" ht="21">
       <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
@@ -2474,7 +2493,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="21">
+    <row r="36" spans="1:8" ht="21">
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
@@ -2491,7 +2510,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="21">
+    <row r="37" spans="1:8" ht="21">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
@@ -2508,7 +2527,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="21">
+    <row r="38" spans="1:8" ht="21">
       <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
@@ -2525,7 +2544,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="21">
+    <row r="39" spans="1:8" ht="21">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
@@ -2536,7 +2555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="21">
+    <row r="40" spans="1:8" ht="21">
       <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
@@ -2553,7 +2572,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="21">
+    <row r="41" spans="1:8" ht="21">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -2570,16 +2589,16 @@
         <v>472</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="21">
+    <row r="42" spans="1:8" ht="21">
       <c r="B42" s="7"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:5" ht="21">
+    <row r="43" spans="1:8" ht="21">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:5" ht="21">
+    <row r="44" spans="1:8" ht="21">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
@@ -2589,8 +2608,17 @@
       <c r="C44" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="21">
+      <c r="D44" t="s">
+        <v>486</v>
+      </c>
+      <c r="E44" t="s">
+        <v>486</v>
+      </c>
+      <c r="H44" s="11">
+        <v>45222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="21">
       <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
@@ -2600,8 +2628,14 @@
       <c r="C45" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="21">
+      <c r="D45" t="s">
+        <v>487</v>
+      </c>
+      <c r="E45" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="21">
       <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
@@ -2611,8 +2645,14 @@
       <c r="C46" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="21">
+      <c r="D46" t="s">
+        <v>488</v>
+      </c>
+      <c r="E46" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="21">
       <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
@@ -2622,8 +2662,14 @@
       <c r="C47" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="21">
+      <c r="D47" t="s">
+        <v>489</v>
+      </c>
+      <c r="E47" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="21">
       <c r="A48" s="8" t="s">
         <v>42</v>
       </c>
@@ -2633,8 +2679,14 @@
       <c r="C48" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="21">
+      <c r="D48" t="s">
+        <v>467</v>
+      </c>
+      <c r="E48" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="21">
       <c r="A49" s="8" t="s">
         <v>42</v>
       </c>
@@ -2642,10 +2694,16 @@
         <v>48</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D49" t="s">
+        <v>491</v>
+      </c>
+      <c r="E49" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="21">
       <c r="A50" s="8" t="s">
         <v>42</v>
       </c>
@@ -2653,13 +2711,13 @@
         <v>49</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="21">
+    <row r="51" spans="1:8" ht="21">
       <c r="A51" s="8" t="s">
         <v>42</v>
       </c>
@@ -2667,10 +2725,10 @@
         <v>50</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="21">
       <c r="A52" s="8" t="s">
         <v>42</v>
       </c>
@@ -2678,16 +2736,16 @@
         <v>51</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
         <v>467</v>
       </c>
-      <c r="E52" t="s">
+      <c r="H52" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="21">
+    <row r="53" spans="1:8" ht="21">
       <c r="A53" s="8" t="s">
         <v>42</v>
       </c>
@@ -2698,12 +2756,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="21">
+    <row r="55" spans="1:8" ht="21">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:5" ht="21">
+    <row r="56" spans="1:8" ht="21">
       <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
@@ -2714,7 +2772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="21">
+    <row r="57" spans="1:8" ht="21">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
@@ -2725,7 +2783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="21">
+    <row r="58" spans="1:8" ht="21">
       <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
@@ -2736,7 +2794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="21">
+    <row r="59" spans="1:8" ht="21">
       <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
@@ -2747,7 +2805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="21">
+    <row r="60" spans="1:8" ht="21">
       <c r="A60" s="5" t="s">
         <v>53</v>
       </c>
@@ -2758,7 +2816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="21">
+    <row r="61" spans="1:8" ht="21">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
@@ -2769,7 +2827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="21">
+    <row r="62" spans="1:8" ht="21">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
@@ -2780,7 +2838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="21">
+    <row r="63" spans="1:8" ht="21">
       <c r="A63" s="5" t="s">
         <v>53</v>
       </c>
@@ -2791,7 +2849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="21">
+    <row r="64" spans="1:8" ht="21">
       <c r="A64" s="5" t="s">
         <v>53</v>
       </c>

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B491B7B-74A0-468C-8587-3CE04B5D0F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA9866A-9461-427A-AA80-DC6BF369366D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="492">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1933,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52:H52"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2711,7 +2711,13 @@
         <v>49</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D50" t="s">
+        <v>477</v>
+      </c>
+      <c r="E50" t="s">
+        <v>477</v>
       </c>
       <c r="G50" t="s">
         <v>466</v>
@@ -2725,7 +2731,13 @@
         <v>50</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D51" t="s">
+        <v>477</v>
+      </c>
+      <c r="E51" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21">

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA9866A-9461-427A-AA80-DC6BF369366D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19239CCE-C9EF-4198-B486-3C826D50E28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="494">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1501,6 +1501,12 @@
   </si>
   <si>
     <t>O(row*col)</t>
+  </si>
+  <si>
+    <t>O(k*LognN)</t>
+  </si>
+  <si>
+    <t>O(N)</t>
   </si>
 </sst>
 </file>
@@ -1933,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2748,7 +2754,13 @@
         <v>51</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D52" t="s">
+        <v>492</v>
+      </c>
+      <c r="E52" t="s">
+        <v>493</v>
       </c>
       <c r="G52" t="s">
         <v>467</v>

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19239CCE-C9EF-4198-B486-3C826D50E28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727B07C4-0DAE-4A68-BCBE-A3B8D1E89F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="496">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1507,6 +1507,12 @@
   </si>
   <si>
     <t>O(N)</t>
+  </si>
+  <si>
+    <t>O(c)</t>
+  </si>
+  <si>
+    <t>because java has 'string constant pool' where unique strings are stored and their addresses are provided to identifiers. So multiple strings with same value references to same address. When we want to update the string, it creates another entry in the pool and its references to that address. And the older string is stored as a garbage and deleted after some time.</t>
   </si>
 </sst>
 </file>
@@ -1939,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2777,7 +2783,16 @@
         <v>52</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D53" t="s">
+        <v>486</v>
+      </c>
+      <c r="E53" t="s">
+        <v>494</v>
+      </c>
+      <c r="H53" s="11">
+        <v>45225</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21">
@@ -2793,7 +2808,16 @@
         <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D56" t="s">
+        <v>471</v>
+      </c>
+      <c r="E56" t="s">
+        <v>472</v>
+      </c>
+      <c r="H56" s="11">
+        <v>45225</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21">
@@ -2804,7 +2828,13 @@
         <v>55</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D57" t="s">
+        <v>471</v>
+      </c>
+      <c r="E57" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21">
@@ -2815,7 +2845,13 @@
         <v>56</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D58" t="s">
+        <v>471</v>
+      </c>
+      <c r="E58" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21">
@@ -2826,7 +2862,10 @@
         <v>57</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D59" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21">

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727B07C4-0DAE-4A68-BCBE-A3B8D1E89F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E2B636-627E-42C9-A2ED-72683AF2C156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="499">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1513,6 +1513,15 @@
   </si>
   <si>
     <t>because java has 'string constant pool' where unique strings are stored and their addresses are provided to identifiers. So multiple strings with same value references to same address. When we want to update the string, it creates another entry in the pool and its references to that address. And the older string is stored as a garbage and deleted after some time.</t>
+  </si>
+  <si>
+    <t>O(2^n)</t>
+  </si>
+  <si>
+    <t>O(2^(n-1))</t>
+  </si>
+  <si>
+    <t>O(n^3)</t>
   </si>
 </sst>
 </file>
@@ -1945,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2876,7 +2885,13 @@
         <v>58</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D60" t="s">
+        <v>471</v>
+      </c>
+      <c r="E60" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21">
@@ -2887,7 +2902,13 @@
         <v>59</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D61" t="s">
+        <v>481</v>
+      </c>
+      <c r="E61" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21">
@@ -2898,7 +2919,13 @@
         <v>60</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D62" t="s">
+        <v>496</v>
+      </c>
+      <c r="E62" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21">
@@ -2910,6 +2937,12 @@
       </c>
       <c r="C63" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="F63" t="s">
+        <v>498</v>
+      </c>
+      <c r="G63" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21">

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E2B636-627E-42C9-A2ED-72683AF2C156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96D2466-D367-4E48-8685-EEBA666A0AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="501">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1522,6 +1522,12 @@
   </si>
   <si>
     <t>O(n^3)</t>
+  </si>
+  <si>
+    <t>O(n*logn*2^n)</t>
+  </si>
+  <si>
+    <t>O(n!*n)</t>
   </si>
 </sst>
 </file>
@@ -1954,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2956,7 +2962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="21">
+    <row r="65" spans="1:7" ht="21">
       <c r="A65" s="5" t="s">
         <v>53</v>
       </c>
@@ -2964,10 +2970,16 @@
         <v>63</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D65" t="s">
+        <v>499</v>
+      </c>
+      <c r="E65" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="21">
       <c r="A66" s="5" t="s">
         <v>53</v>
       </c>
@@ -2975,10 +2987,16 @@
         <v>64</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D66" t="s">
+        <v>500</v>
+      </c>
+      <c r="E66" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="21">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
@@ -2986,10 +3004,16 @@
         <v>65</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D67" t="s">
+        <v>471</v>
+      </c>
+      <c r="E67" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="21">
       <c r="A68" s="5" t="s">
         <v>53</v>
       </c>
@@ -2999,8 +3023,14 @@
       <c r="C68" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="21">
+      <c r="F68" t="s">
+        <v>496</v>
+      </c>
+      <c r="G68" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="21">
       <c r="A69" s="5" t="s">
         <v>53</v>
       </c>
@@ -3011,7 +3041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="21">
+    <row r="70" spans="1:7" ht="21">
       <c r="A70" s="5" t="s">
         <v>53</v>
       </c>
@@ -3019,10 +3049,16 @@
         <v>68</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D70" t="s">
+        <v>471</v>
+      </c>
+      <c r="E70" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="21">
       <c r="A71" s="5" t="s">
         <v>53</v>
       </c>
@@ -3030,10 +3066,16 @@
         <v>69</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D71" t="s">
+        <v>471</v>
+      </c>
+      <c r="E71" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="21">
       <c r="A72" s="5" t="s">
         <v>53</v>
       </c>
@@ -3044,7 +3086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="21">
+    <row r="73" spans="1:7" ht="21">
       <c r="A73" s="5" t="s">
         <v>53</v>
       </c>
@@ -3055,7 +3097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="21">
+    <row r="74" spans="1:7" ht="21">
       <c r="A74" s="5" t="s">
         <v>53</v>
       </c>
@@ -3066,7 +3108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="21">
+    <row r="75" spans="1:7" ht="21">
       <c r="A75" s="5" t="s">
         <v>53</v>
       </c>
@@ -3077,7 +3119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21">
+    <row r="76" spans="1:7" ht="21">
       <c r="A76" s="5" t="s">
         <v>53</v>
       </c>
@@ -3088,7 +3130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="21">
+    <row r="77" spans="1:7" ht="21">
       <c r="A77" s="5" t="s">
         <v>53</v>
       </c>
@@ -3099,7 +3141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="21">
+    <row r="78" spans="1:7" ht="21">
       <c r="A78" s="5" t="s">
         <v>53</v>
       </c>
@@ -3110,7 +3152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="21">
+    <row r="79" spans="1:7" ht="21">
       <c r="A79" s="5" t="s">
         <v>53</v>
       </c>
@@ -3121,7 +3163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="21">
+    <row r="80" spans="1:7" ht="21">
       <c r="A80" s="5" t="s">
         <v>53</v>
       </c>

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96D2466-D367-4E48-8685-EEBA666A0AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A288EB-E932-42C5-AE2E-0642AC33880D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="503">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1528,6 +1528,12 @@
   </si>
   <si>
     <t>O(n!*n)</t>
+  </si>
+  <si>
+    <t>O(2^s)</t>
+  </si>
+  <si>
+    <t>O(n + s)</t>
   </si>
 </sst>
 </file>
@@ -1960,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3085,6 +3091,12 @@
       <c r="C72" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="F72" t="s">
+        <v>501</v>
+      </c>
+      <c r="G72" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="73" spans="1:7" ht="21">
       <c r="A73" s="5" t="s">
@@ -3094,7 +3106,13 @@
         <v>71</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D73" t="s">
+        <v>471</v>
+      </c>
+      <c r="E73" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="21">

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A288EB-E932-42C5-AE2E-0642AC33880D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C176A7E9-AFE0-4053-8DB1-9C2CB9C8A29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="503">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1966,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3134,7 +3134,13 @@
         <v>73</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D75" t="s">
+        <v>471</v>
+      </c>
+      <c r="E75" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="21">
@@ -3145,7 +3151,13 @@
         <v>74</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D76" t="s">
+        <v>471</v>
+      </c>
+      <c r="E76" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="21">

--- a/450series/450series_babbar.xlsx
+++ b/450series/450series_babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadi\OneDrive\Desktop\codes\450series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C176A7E9-AFE0-4053-8DB1-9C2CB9C8A29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBD36CD-C38D-4F67-9463-F631D750D4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="505">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1534,6 +1534,12 @@
   </si>
   <si>
     <t>O(n + s)</t>
+  </si>
+  <si>
+    <t>O(n * min(|s|))</t>
+  </si>
+  <si>
+    <t>O(n^4)</t>
   </si>
 </sst>
 </file>
@@ -1966,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3204,7 +3210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="21">
+    <row r="81" spans="1:5" ht="21">
       <c r="A81" s="5" t="s">
         <v>53</v>
       </c>
@@ -3212,10 +3218,16 @@
         <v>79</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D81" t="s">
+        <v>471</v>
+      </c>
+      <c r="E81" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="21">
       <c r="A82" s="5" t="s">
         <v>53</v>
       </c>
@@ -3223,10 +3235,16 @@
         <v>80</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D82" t="s">
+        <v>503</v>
+      </c>
+      <c r="E82" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="21">
       <c r="A83" s="5" t="s">
         <v>53</v>
       </c>
@@ -3234,10 +3252,16 @@
         <v>81</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D83" t="s">
+        <v>471</v>
+      </c>
+      <c r="E83" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="21">
       <c r="A84" s="5" t="s">
         <v>53</v>
       </c>
@@ -3245,10 +3269,16 @@
         <v>82</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D84" t="s">
+        <v>471</v>
+      </c>
+      <c r="E84" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="21">
       <c r="A85" s="5" t="s">
         <v>53</v>
       </c>
@@ -3256,10 +3286,16 @@
         <v>83</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D85" t="s">
+        <v>471</v>
+      </c>
+      <c r="E85" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="21">
       <c r="A86" s="5" t="s">
         <v>53</v>
       </c>
@@ -3270,7 +3306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="21">
+    <row r="87" spans="1:5" ht="21">
       <c r="A87" s="5" t="s">
         <v>53</v>
       </c>
@@ -3278,10 +3314,16 @@
         <v>85</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D87" t="s">
+        <v>498</v>
+      </c>
+      <c r="E87" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="21">
       <c r="A88" s="5" t="s">
         <v>53</v>
       </c>
@@ -3292,7 +3334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="21">
+    <row r="89" spans="1:5" ht="21">
       <c r="A89" s="5" t="s">
         <v>53</v>
       </c>
@@ -3303,7 +3345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="21">
+    <row r="90" spans="1:5" ht="21">
       <c r="A90" s="5" t="s">
         <v>53</v>
       </c>
@@ -3314,7 +3356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="21">
+    <row r="91" spans="1:5" ht="21">
       <c r="A91" s="5" t="s">
         <v>53</v>
       </c>
@@ -3325,7 +3367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="21">
+    <row r="92" spans="1:5" ht="21">
       <c r="A92" s="5" t="s">
         <v>53</v>
       </c>
@@ -3336,7 +3378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="21">
+    <row r="93" spans="1:5" ht="21">
       <c r="A93" s="5" t="s">
         <v>53</v>
       </c>
@@ -3347,7 +3389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="21">
+    <row r="94" spans="1:5" ht="21">
       <c r="A94" s="5" t="s">
         <v>53</v>
       </c>
@@ -3358,7 +3400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="21">
+    <row r="95" spans="1:5" ht="21">
       <c r="A95" s="5" t="s">
         <v>53</v>
       </c>
@@ -3369,7 +3411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="21">
+    <row r="96" spans="1:5" ht="21">
       <c r="A96" s="5" t="s">
         <v>53</v>
       </c>
